--- a/Ejercicio 2/Horarios.xlsx
+++ b/Ejercicio 2/Horarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fl156\Desktop\Practica2TSI\Ejercicio 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14391C36-7A5C-4103-BFB5-4F74A93B2BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508E07A5-63DE-4020-A081-1E424A38C5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="14400" windowHeight="7360" xr2:uid="{DF0CBAD7-F0C0-4254-9EEC-9E42133AC824}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DF0CBAD7-F0C0-4254-9EEC-9E42133AC824}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="16">
   <si>
     <t>Hora\Dia</t>
   </si>
@@ -51,6 +51,36 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>RECREO</t>
   </si>
 </sst>
 </file>
@@ -101,7 +131,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -129,7 +169,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7D43039-1DE1-4582-8BAB-9E296E3A6E2A}" name="Tabla1" displayName="Tabla1" ref="B2:G8" totalsRowShown="0">
   <autoFilter ref="B2:G8" xr:uid="{E7D43039-1DE1-4582-8BAB-9E296E3A6E2A}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{08F3E963-A51A-4E09-96E7-B7A37B9263DB}" name="Hora\Dia" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{08F3E963-A51A-4E09-96E7-B7A37B9263DB}" name="Hora\Dia" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{F8C35AB4-FA65-4937-A80B-34288EDFD060}" name="L"/>
     <tableColumn id="3" xr3:uid="{2279CE25-7392-46DE-B6A1-65695A309816}" name="M"/>
     <tableColumn id="4" xr3:uid="{D506F3CD-DA65-42FE-993A-6BEC28C49AB1}" name="X"/>
@@ -144,12 +184,62 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{69DD06B0-7549-4B5C-A240-95496D2D42BC}" name="Tabla13" displayName="Tabla13" ref="B11:G17" totalsRowShown="0">
   <autoFilter ref="B11:G17" xr:uid="{69DD06B0-7549-4B5C-A240-95496D2D42BC}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0F850155-F3F6-4C15-BE8F-066BB70029E5}" name="Hora\Dia" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0F850155-F3F6-4C15-BE8F-066BB70029E5}" name="Hora\Dia" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{1D3B549F-FDDA-42FD-8953-ABFE49F42F3B}" name="L"/>
     <tableColumn id="3" xr3:uid="{67325A5A-EA79-444A-AFBB-A680ACF85DF6}" name="M"/>
     <tableColumn id="4" xr3:uid="{AA8CDA21-3007-4A6D-8646-831A8F933746}" name="X"/>
     <tableColumn id="5" xr3:uid="{71A0CEE9-F11E-4C71-B238-4D69150FC815}" name="J"/>
     <tableColumn id="6" xr3:uid="{2D666AE2-CDB3-4A40-B833-07B14CAB5B80}" name="V"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F5959655-2F0F-4DEE-9D43-7EE3EF97E802}" name="Tabla14" displayName="Tabla14" ref="I2:N8" totalsRowShown="0">
+  <autoFilter ref="I2:N8" xr:uid="{F5959655-2F0F-4DEE-9D43-7EE3EF97E802}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{FDAFCA82-766C-4A1A-BC54-4EF577465C8E}" name="Hora\Dia" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{637D287E-900B-4791-A3A5-F8189A79AAF7}" name="L">
+      <calculatedColumnFormula>CONCATENATE("A",C3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{C10DD124-660F-41D3-8F51-133C3F91B6AC}" name="M">
+      <calculatedColumnFormula>CONCATENATE("A",D3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{C2E06E9A-2D6B-4430-91B6-B326DD40B7A5}" name="X">
+      <calculatedColumnFormula>CONCATENATE("A",E3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{8292E01A-7882-40BA-A280-290029B1ACA8}" name="J">
+      <calculatedColumnFormula>CONCATENATE("A",F3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{82E91817-4F62-4897-A463-E9A79EDFD8A7}" name="V">
+      <calculatedColumnFormula>CONCATENATE("A",G3)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1247DDEA-4080-43B6-B5A6-EAAF4420ABCD}" name="Tabla146" displayName="Tabla146" ref="I11:N17" totalsRowShown="0">
+  <autoFilter ref="I11:N17" xr:uid="{1247DDEA-4080-43B6-B5A6-EAAF4420ABCD}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{23C12E12-09CA-482C-BE52-FEFCA25FC6B0}" name="Hora\Dia" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{D21B9A41-71FD-49AC-A40A-7CD47D0595E4}" name="L">
+      <calculatedColumnFormula>CONCATENATE("A",C12)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{1D980A1E-E914-411F-8C6D-CE2DA4F9BD54}" name="M">
+      <calculatedColumnFormula>CONCATENATE("A",D12)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{33091398-CC36-4C81-B9CA-B1200DF54738}" name="X">
+      <calculatedColumnFormula>CONCATENATE("A",E12)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{7EDF0187-BF9B-48C4-AFE8-D4F9304188E9}" name="J">
+      <calculatedColumnFormula>CONCATENATE("A",F12)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A8E16D1D-0DA1-4427-B6C0-C190CE8C9F79}" name="V">
+      <calculatedColumnFormula>CONCATENATE("A",G12)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -452,15 +542,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F484339C-7C04-4260-8C54-90C5426D2F57}">
-  <dimension ref="B2:G17"/>
+  <dimension ref="B2:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,8 +572,44 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -499,8 +628,49 @@
       <c r="G3">
         <v>5</v>
       </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" t="str">
+        <f>CONCATENATE("A",C3)</f>
+        <v>A4</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:N3" si="0">CONCATENATE("A",D3)</f>
+        <v>A4</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v>A8</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="0"/>
+        <v>A5</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="0"/>
+        <v>A5</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -519,8 +689,49 @@
       <c r="G4">
         <v>5</v>
       </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J8" si="1">CONCATENATE("A",C4)</f>
+        <v>A4</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K8" si="2">CONCATENATE("A",D4)</f>
+        <v>A4</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L8" si="3">CONCATENATE("A",E4)</f>
+        <v>A8</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M8" si="4">CONCATENATE("A",F4)</f>
+        <v>A5</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N8" si="5">CONCATENATE("A",G4)</f>
+        <v>A5</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -539,8 +750,49 @@
       <c r="G5">
         <v>6</v>
       </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>A9</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="2"/>
+        <v>A7</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="3"/>
+        <v>A6</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="4"/>
+        <v>A2</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="5"/>
+        <v>A6</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -559,8 +811,44 @@
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -579,8 +867,49 @@
       <c r="G7">
         <v>2</v>
       </c>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>A1</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="2"/>
+        <v>A1</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="3"/>
+        <v>A3</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="4"/>
+        <v>A3</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="5"/>
+        <v>A2</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U7" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -599,8 +928,49 @@
       <c r="G8">
         <v>7</v>
       </c>
+      <c r="I8" s="1">
+        <v>6</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>A1</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v>A1</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="3"/>
+        <v>A3</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="4"/>
+        <v>A3</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="5"/>
+        <v>A7</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,8 +989,44 @@
       <c r="G11" t="s">
         <v>5</v>
       </c>
+      <c r="I11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s">
+        <v>4</v>
+      </c>
+      <c r="U11" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>1</v>
       </c>
@@ -639,8 +1045,49 @@
       <c r="G12">
         <v>5</v>
       </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" t="str">
+        <f>CONCATENATE("A",C12)</f>
+        <v>A4</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" ref="K12:K14" si="6">CONCATENATE("A",D12)</f>
+        <v>A4</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" ref="L12:L14" si="7">CONCATENATE("A",E12)</f>
+        <v>A8</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" ref="M12:M14" si="8">CONCATENATE("A",F12)</f>
+        <v>A5</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" ref="N12:N14" si="9">CONCATENATE("A",G12)</f>
+        <v>A5</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" t="s">
+        <v>7</v>
+      </c>
+      <c r="T12" t="s">
+        <v>14</v>
+      </c>
+      <c r="U12" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>2</v>
       </c>
@@ -659,8 +1106,49 @@
       <c r="G13">
         <v>5</v>
       </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" ref="J13:J17" si="10">CONCATENATE("A",C13)</f>
+        <v>A4</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="6"/>
+        <v>A4</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="7"/>
+        <v>A8</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="8"/>
+        <v>A5</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="9"/>
+        <v>A5</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" t="s">
+        <v>14</v>
+      </c>
+      <c r="U13" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>3</v>
       </c>
@@ -679,8 +1167,49 @@
       <c r="G14">
         <v>6</v>
       </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="10"/>
+        <v>A9</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="6"/>
+        <v>A7</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="7"/>
+        <v>A6</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="8"/>
+        <v>A2</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="9"/>
+        <v>A6</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" t="s">
+        <v>13</v>
+      </c>
+      <c r="T14" t="s">
+        <v>11</v>
+      </c>
+      <c r="U14" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>4</v>
       </c>
@@ -699,8 +1228,44 @@
       <c r="G15">
         <v>0</v>
       </c>
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" t="s">
+        <v>15</v>
+      </c>
+      <c r="T15" t="s">
+        <v>15</v>
+      </c>
+      <c r="U15" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>5</v>
       </c>
@@ -719,8 +1284,49 @@
       <c r="G16">
         <v>7</v>
       </c>
+      <c r="I16" s="1">
+        <v>5</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ref="J16:J17" si="11">CONCATENATE("A",C16)</f>
+        <v>A1</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" ref="K16:K17" si="12">CONCATENATE("A",D16)</f>
+        <v>A1</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:L17" si="13">CONCATENATE("A",E16)</f>
+        <v>A3</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" ref="M16:M17" si="14">CONCATENATE("A",F16)</f>
+        <v>A3</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" ref="N16:N17" si="15">CONCATENATE("A",G16)</f>
+        <v>A7</v>
+      </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16" t="s">
+        <v>10</v>
+      </c>
+      <c r="U16" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>6</v>
       </c>
@@ -738,14 +1344,57 @@
       </c>
       <c r="G17">
         <v>2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>6</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="11"/>
+        <v>A1</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="12"/>
+        <v>A1</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="13"/>
+        <v>A3</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="14"/>
+        <v>A3</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="15"/>
+        <v>A2</v>
+      </c>
+      <c r="P17">
+        <v>6</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>9</v>
+      </c>
+      <c r="R17" t="s">
+        <v>9</v>
+      </c>
+      <c r="S17" t="s">
+        <v>10</v>
+      </c>
+      <c r="T17" t="s">
+        <v>10</v>
+      </c>
+      <c r="U17" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>